--- a/data/trans_bre/P6903-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6903-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-26,51; 24,28</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 27,72</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; 33,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-56,53; 83,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,27; 85,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,18; 552,39</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 19,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,36; 12,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 38,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,55; 27,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,8; 83,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,68; 55,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 118,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,37; 110,94</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,53%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-41,1; 2,58</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 38,49</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 18,38</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 30,52</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-90,82; 24,37</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-57,66; 646,91</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,9; 656,4</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,61; 16,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,14; 39,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,9; 26,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,96; 25,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,77; 131,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,54; 194,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,72; 71,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,51; 67,51</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>460,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,04%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-33,09; 47,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 62,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; 45,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 36,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 284,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,3; 139,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,75; 732,26</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,38%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,95; -6,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 40,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,99; 51,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 21,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 20,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,01; 371,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,9; 180,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,84; 145,67</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,32%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 19,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 25,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 17,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 31,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,04; 94,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,46; 293,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,55; 76,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,18; 232,36</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,62</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,9%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 34,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; 26,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,67; 12,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,43; 9,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 126,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,33; 110,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,94; 54,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,38; 15,45</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 6,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 19,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 11,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 14,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 23,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 94,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 33,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 47,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>44,29%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 51,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 33,46</t>
+          <t>-16,65; 34,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 285,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 552,39</t>
+          <t>-65,82; 532,65</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 27,41</t>
+          <t>-17,84; 25,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 110,94</t>
+          <t>-33,4; 107,9</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>156,53%</t>
+          <t>161,0%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 30,52</t>
+          <t>4,52; 30,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 656,4</t>
+          <t>10,6; 673,7</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,77</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-27,19%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 39,39</t>
+          <t>-5,87; 41,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 25,08</t>
+          <t>-54,9; 19,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 194,78</t>
+          <t>-15,85; 256,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 67,51</t>
+          <t>-78,38; 43,19</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>76,11%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 36,62</t>
+          <t>-9,98; 35,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 732,26</t>
+          <t>-53,51; 723,67</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 21,13</t>
+          <t>-15,03; 21,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 145,67</t>
+          <t>-44,06; 150,65</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 31,53</t>
+          <t>3,48; 31,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 232,36</t>
+          <t>9,83; 232,24</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>-16,15%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 9,43</t>
+          <t>-27,49; 7,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 15,45</t>
+          <t>-35,84; 12,95</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 14,76</t>
+          <t>-8,58; 12,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 47,31</t>
+          <t>-21,58; 41,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 24,28</t>
+          <t>-23,76; 24,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 51,06</t>
+          <t>3,61; 52,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 27,72</t>
+          <t>-13,92; 26,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 34,98</t>
+          <t>-16,21; 39,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 83,56</t>
+          <t>-49,33; 87,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 285,68</t>
+          <t>7,16; 319,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 85,36</t>
+          <t>-28,57; 82,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 532,65</t>
+          <t>-59,81; 795,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 19,39</t>
+          <t>-18,85; 19,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 12,05</t>
+          <t>-28,3; 12,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 38,46</t>
+          <t>-0,6; 36,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 25,76</t>
+          <t>-19,56; 26,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 83,11</t>
+          <t>-54,24; 88,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,68; 55,05</t>
+          <t>-72,7; 55,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 118,41</t>
+          <t>-1,33; 109,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 107,9</t>
+          <t>-35,76; 106,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 2,58</t>
+          <t>-39,39; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 38,49</t>
+          <t>-10,19; 36,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 18,38</t>
+          <t>-31,72; 20,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 30,74</t>
+          <t>3,66; 30,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,82; 24,37</t>
+          <t>-89,48; 34,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 646,91</t>
+          <t>-59,81; 544,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 673,7</t>
+          <t>9,35; 583,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 16,1</t>
+          <t>-23,62; 12,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 41,32</t>
+          <t>-4,48; 43,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 26,54</t>
+          <t>-28,13; 24,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 19,08</t>
+          <t>-58,51; 17,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,77; 131,28</t>
+          <t>-87,32; 128,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 256,1</t>
+          <t>-14,34; 277,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 71,13</t>
+          <t>-46,27; 69,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 43,19</t>
+          <t>-80,04; 41,44</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 47,65</t>
+          <t>-35,89; 44,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 62,16</t>
+          <t>2,01; 64,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 45,19</t>
+          <t>-49,66; 46,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 35,93</t>
+          <t>-12,01; 34,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 284,39</t>
+          <t>-100,0; 248,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 139,83</t>
+          <t>-74,7; 152,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 723,67</t>
+          <t>-59,29; 648,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -6,56</t>
+          <t>-52,33; -10,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 40,12</t>
+          <t>-13,03; 33,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 51,57</t>
+          <t>-36,31; 51,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 21,78</t>
+          <t>-17,87; 19,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,76</t>
+          <t>-100,0; -14,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 371,42</t>
+          <t>-66,14; 356,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 180,74</t>
+          <t>-71,8; 180,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 150,65</t>
+          <t>-49,79; 126,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 19,94</t>
+          <t>-12,86; 18,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 25,49</t>
+          <t>-4,18; 27,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 17,66</t>
+          <t>-16,94; 16,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 31,55</t>
+          <t>3,47; 31,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 94,83</t>
+          <t>-40,64; 87,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 293,45</t>
+          <t>-25,62; 330,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 76,2</t>
+          <t>-43,74; 72,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 232,24</t>
+          <t>10,56; 229,06</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 34,06</t>
+          <t>-0,73; 31,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 26,23</t>
+          <t>-21,39; 26,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 12,08</t>
+          <t>-38,98; 8,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 7,89</t>
+          <t>-27,71; 8,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 126,58</t>
+          <t>-1,88; 117,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 110,7</t>
+          <t>-52,72; 112,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 54,02</t>
+          <t>-90,63; 39,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 12,95</t>
+          <t>-36,1; 14,81</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,98</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,07; 19,21</t>
+          <t>2,61; 18,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 11,43</t>
+          <t>-6,47; 12,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 12,87</t>
+          <t>-8,22; 12,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 23,71</t>
+          <t>-23,62; 30,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,63; 94,47</t>
+          <t>8,93; 90,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 33,39</t>
+          <t>-15,05; 35,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 41,67</t>
+          <t>-19,51; 41,7</t>
         </is>
       </c>
     </row>
